--- a/BalanceSheet/KLAC_bal.xlsx
+++ b/BalanceSheet/KLAC_bal.xlsx
@@ -507,19 +507,19 @@
         <v>1450588000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-26215000.0</v>
+        <v>1421000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-85991000.0</v>
+        <v>1394000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-56609000.0</v>
+        <v>1311000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-11640000.0</v>
+        <v>1264000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-1477000.0</v>
+        <v>1251000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>1254240000.0</v>
@@ -1688,19 +1688,19 @@
         <v>295111000.0</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>8039000.0</v>
+        <v>262000000.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-9822000.0</v>
+        <v>254000000.0</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>19905000.0</v>
+        <v>264000000.0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>-12904000.0</v>
+        <v>243000000.0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>35258000.0</v>
+        <v>257000000.0</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>221388000.0</v>
@@ -2492,10 +2492,8 @@
           <t>Non-current Revenue (Deferred)</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>86902000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>89000000.0</v>
@@ -2830,7 +2828,7 @@
         <v>411000000.0</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>-93110000.0</v>
+        <v>424000000.0</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>439000000.0</v>
@@ -3008,7 +3006,7 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
-        <v>744917000.0</v>
+        <v>658015000.0</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>594000000.0</v>
@@ -4212,10 +4210,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>153282000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>154161000.0</v>
@@ -4468,10 +4464,8 @@
           <t>Net Debt</t>
         </is>
       </c>
-      <c r="B33" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B33" s="0" t="n">
+        <v>999372000.0</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1270000000.0</v>
@@ -4597,10 +4591,8 @@
           <t>Total Debt</t>
         </is>
       </c>
-      <c r="B34" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B34" s="0" t="n">
+        <v>3442097000.0</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>3567000000.0</v>
